--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 4/VACAIONES  2024.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 4/VACAIONES  2024.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="303">
   <si>
     <t>Ya fueron tomadas</t>
   </si>
@@ -923,22 +923,13 @@
     <t>11 al 28 Nov 2024</t>
   </si>
   <si>
-    <t xml:space="preserve">CENTRAL </t>
-  </si>
-  <si>
     <t>16 Septiembre al   8-Octubre                6 al 27 May 2024</t>
   </si>
   <si>
-    <t>6 al 12  Mayo 2024</t>
-  </si>
-  <si>
     <t>AÑOS</t>
   </si>
   <si>
     <t>DIAS</t>
-  </si>
-  <si>
-    <t>5 al 12 May 2024</t>
   </si>
   <si>
     <t>DEL   5  AL   12-  MAYO                                6 al 27 May 2024</t>
@@ -1620,6 +1611,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="15" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1632,91 +1689,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2007,8 +1998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R390"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="M26" sqref="M25:M26"/>
+    <sheetView tabSelected="1" topLeftCell="A217" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E143" sqref="E143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2039,15 +2030,15 @@
     </row>
     <row r="2" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="3"/>
-      <c r="C2" s="131" t="s">
+      <c r="C2" s="153" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="153"/>
     </row>
     <row r="3" spans="2:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="3"/>
@@ -2409,8 +2400,8 @@
       <c r="H15" s="11">
         <v>22</v>
       </c>
-      <c r="I15" s="154" t="s">
-        <v>300</v>
+      <c r="I15" s="143" t="s">
+        <v>299</v>
       </c>
       <c r="J15" s="13" t="s">
         <v>11</v>
@@ -2439,7 +2430,7 @@
         <v>22</v>
       </c>
       <c r="I16" s="24" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="J16" s="13" t="s">
         <v>11</v>
@@ -2531,19 +2522,19 @@
       <c r="J19" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="L19" s="132" t="s">
+      <c r="L19" s="159" t="s">
         <v>44</v>
       </c>
-      <c r="M19" s="133"/>
-      <c r="N19" s="133"/>
-      <c r="O19" s="133"/>
-      <c r="P19" s="160" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q19" s="160" t="s">
-        <v>303</v>
-      </c>
-      <c r="R19" s="157"/>
+      <c r="M19" s="160"/>
+      <c r="N19" s="160"/>
+      <c r="O19" s="160"/>
+      <c r="P19" s="149" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q19" s="149" t="s">
+        <v>301</v>
+      </c>
+      <c r="R19" s="146"/>
     </row>
     <row r="20" spans="2:18" s="13" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="7">
@@ -2573,27 +2564,13 @@
       <c r="J20" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="L20" s="155" t="s">
-        <v>34</v>
-      </c>
-      <c r="M20" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="N20" s="28">
-        <v>42814</v>
-      </c>
-      <c r="O20" s="28">
-        <v>45371</v>
-      </c>
-      <c r="P20" s="158">
-        <v>7</v>
-      </c>
-      <c r="Q20" s="159">
-        <v>22</v>
-      </c>
-      <c r="R20" s="7" t="s">
-        <v>35</v>
-      </c>
+      <c r="L20" s="144"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="147"/>
+      <c r="Q20" s="148"/>
+      <c r="R20" s="7"/>
     </row>
     <row r="21" spans="2:18" s="13" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="7">
@@ -2623,27 +2600,13 @@
       <c r="J21" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="L21" s="156" t="s">
-        <v>37</v>
-      </c>
-      <c r="M21" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="N21" s="9">
-        <v>43225</v>
-      </c>
-      <c r="O21" s="9">
-        <v>45417</v>
-      </c>
-      <c r="P21" s="10">
-        <v>6</v>
-      </c>
-      <c r="Q21" s="11">
-        <v>22</v>
-      </c>
-      <c r="R21" s="29" t="s">
-        <v>304</v>
-      </c>
+      <c r="L21" s="145"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="29"/>
     </row>
     <row r="22" spans="2:18" s="13" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="7">
@@ -2673,27 +2636,13 @@
       <c r="J22" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="L22" s="156" t="s">
-        <v>110</v>
-      </c>
-      <c r="M22" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="N22" s="9">
-        <v>43185</v>
-      </c>
-      <c r="O22" s="9">
-        <v>45419</v>
-      </c>
-      <c r="P22" s="10">
-        <v>6</v>
-      </c>
-      <c r="Q22" s="11">
-        <v>22</v>
-      </c>
-      <c r="R22" s="7" t="s">
-        <v>301</v>
-      </c>
+      <c r="L22" s="145"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="7"/>
     </row>
     <row r="23" spans="2:18" s="13" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="7">
@@ -2723,7 +2672,7 @@
       <c r="J23" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="L23" s="155"/>
+      <c r="L23" s="144"/>
       <c r="M23" s="7"/>
       <c r="N23" s="28"/>
       <c r="O23" s="28"/>
@@ -3309,15 +3258,15 @@
     </row>
     <row r="46" spans="2:10" s="13" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="7"/>
-      <c r="C46" s="134" t="s">
+      <c r="C46" s="154" t="s">
         <v>92</v>
       </c>
-      <c r="D46" s="134"/>
-      <c r="E46" s="134"/>
-      <c r="F46" s="134"/>
-      <c r="G46" s="134"/>
-      <c r="H46" s="134"/>
-      <c r="I46" s="134"/>
+      <c r="D46" s="154"/>
+      <c r="E46" s="154"/>
+      <c r="F46" s="154"/>
+      <c r="G46" s="154"/>
+      <c r="H46" s="154"/>
+      <c r="I46" s="154"/>
     </row>
     <row r="47" spans="2:10" s="13" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="7"/>
@@ -3577,13 +3526,13 @@
       <c r="D56" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="E56" s="139">
+      <c r="E56" s="128">
         <v>40295</v>
       </c>
-      <c r="F56" s="139">
+      <c r="F56" s="128">
         <v>45409</v>
       </c>
-      <c r="G56" s="140">
+      <c r="G56" s="129">
         <v>14</v>
       </c>
       <c r="H56" s="18">
@@ -3600,28 +3549,28 @@
       <c r="B57" s="7">
         <v>10</v>
       </c>
-      <c r="C57" s="142" t="s">
+      <c r="C57" s="131" t="s">
         <v>110</v>
       </c>
-      <c r="D57" s="143" t="s">
+      <c r="D57" s="132" t="s">
         <v>95</v>
       </c>
-      <c r="E57" s="144">
+      <c r="E57" s="133">
         <v>43185</v>
       </c>
-      <c r="F57" s="144">
+      <c r="F57" s="133">
         <v>45419</v>
       </c>
-      <c r="G57" s="145">
+      <c r="G57" s="134">
         <v>6</v>
       </c>
-      <c r="H57" s="146">
+      <c r="H57" s="135">
         <v>22</v>
       </c>
-      <c r="I57" s="141" t="s">
+      <c r="I57" s="130" t="s">
         <v>111</v>
       </c>
-      <c r="J57" s="147" t="s">
+      <c r="J57" s="136" t="s">
         <v>95</v>
       </c>
     </row>
@@ -4162,15 +4111,15 @@
     </row>
     <row r="81" spans="2:11" s="13" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B81" s="61"/>
-      <c r="C81" s="135" t="s">
+      <c r="C81" s="155" t="s">
         <v>142</v>
       </c>
-      <c r="D81" s="135"/>
-      <c r="E81" s="135"/>
-      <c r="F81" s="135"/>
-      <c r="G81" s="135"/>
-      <c r="H81" s="135"/>
-      <c r="I81" s="135"/>
+      <c r="D81" s="155"/>
+      <c r="E81" s="155"/>
+      <c r="F81" s="155"/>
+      <c r="G81" s="155"/>
+      <c r="H81" s="155"/>
+      <c r="I81" s="155"/>
     </row>
     <row r="82" spans="2:11" s="13" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B82" s="61"/>
@@ -5020,15 +4969,15 @@
     </row>
     <row r="113" spans="2:10" s="13" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B113" s="91"/>
-      <c r="C113" s="128" t="s">
+      <c r="C113" s="150" t="s">
         <v>190</v>
       </c>
-      <c r="D113" s="129"/>
-      <c r="E113" s="129"/>
-      <c r="F113" s="129"/>
-      <c r="G113" s="129"/>
-      <c r="H113" s="129"/>
-      <c r="I113" s="130"/>
+      <c r="D113" s="151"/>
+      <c r="E113" s="151"/>
+      <c r="F113" s="151"/>
+      <c r="G113" s="151"/>
+      <c r="H113" s="151"/>
+      <c r="I113" s="152"/>
     </row>
     <row r="114" spans="2:10" s="13" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B114" s="91"/>
@@ -5268,25 +5217,25 @@
       <c r="B123" s="7">
         <v>9</v>
       </c>
-      <c r="C123" s="148" t="s">
+      <c r="C123" s="137" t="s">
         <v>204</v>
       </c>
-      <c r="D123" s="149" t="s">
+      <c r="D123" s="138" t="s">
         <v>95</v>
       </c>
-      <c r="E123" s="150">
+      <c r="E123" s="139">
         <v>43620</v>
       </c>
-      <c r="F123" s="150">
+      <c r="F123" s="139">
         <v>45447</v>
       </c>
-      <c r="G123" s="151">
+      <c r="G123" s="140">
         <v>5</v>
       </c>
-      <c r="H123" s="152">
+      <c r="H123" s="141">
         <v>20</v>
       </c>
-      <c r="I123" s="153" t="s">
+      <c r="I123" s="142" t="s">
         <v>205</v>
       </c>
       <c r="J123" s="13" t="s">
@@ -5610,15 +5559,15 @@
     </row>
     <row r="137" spans="2:10" s="13" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B137" s="107"/>
-      <c r="C137" s="136" t="s">
+      <c r="C137" s="156" t="s">
         <v>222</v>
       </c>
-      <c r="D137" s="137"/>
-      <c r="E137" s="137"/>
-      <c r="F137" s="137"/>
-      <c r="G137" s="137"/>
-      <c r="H137" s="137"/>
-      <c r="I137" s="138"/>
+      <c r="D137" s="157"/>
+      <c r="E137" s="157"/>
+      <c r="F137" s="157"/>
+      <c r="G137" s="157"/>
+      <c r="H137" s="157"/>
+      <c r="I137" s="158"/>
     </row>
     <row r="138" spans="2:10" s="13" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B138" s="107"/>
@@ -5790,15 +5739,15 @@
     </row>
     <row r="146" spans="2:10" s="13" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B146" s="116"/>
-      <c r="C146" s="128" t="s">
+      <c r="C146" s="150" t="s">
         <v>232</v>
       </c>
-      <c r="D146" s="129"/>
-      <c r="E146" s="129"/>
-      <c r="F146" s="129"/>
-      <c r="G146" s="129"/>
-      <c r="H146" s="129"/>
-      <c r="I146" s="130"/>
+      <c r="D146" s="151"/>
+      <c r="E146" s="151"/>
+      <c r="F146" s="151"/>
+      <c r="G146" s="151"/>
+      <c r="H146" s="151"/>
+      <c r="I146" s="152"/>
     </row>
     <row r="147" spans="2:10" s="13" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B147" s="116"/>
@@ -6334,15 +6283,15 @@
     </row>
     <row r="169" spans="2:11" s="13" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B169" s="116"/>
-      <c r="C169" s="128" t="s">
+      <c r="C169" s="150" t="s">
         <v>262</v>
       </c>
-      <c r="D169" s="129"/>
-      <c r="E169" s="129"/>
-      <c r="F169" s="129"/>
-      <c r="G169" s="129"/>
-      <c r="H169" s="129"/>
-      <c r="I169" s="130"/>
+      <c r="D169" s="151"/>
+      <c r="E169" s="151"/>
+      <c r="F169" s="151"/>
+      <c r="G169" s="151"/>
+      <c r="H169" s="151"/>
+      <c r="I169" s="152"/>
     </row>
     <row r="170" spans="2:11" s="13" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B170" s="116"/>
@@ -8534,6 +8483,7 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="L19:O19"/>
     <mergeCell ref="C146:I146"/>
     <mergeCell ref="C169:I169"/>
     <mergeCell ref="C2:I2"/>
@@ -8541,7 +8491,6 @@
     <mergeCell ref="C81:I81"/>
     <mergeCell ref="C113:I113"/>
     <mergeCell ref="C137:I137"/>
-    <mergeCell ref="L19:O19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
